--- a/Task.xlsx
+++ b/Task.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -107,6 +107,21 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>OmarAlcaesar</t>
+  </si>
+  <si>
+    <t>zaid omer</t>
+  </si>
+  <si>
+    <t>Yassir Saddi</t>
+  </si>
+  <si>
+    <t>Mazin Al-Hadad</t>
+  </si>
+  <si>
+    <t>Abdullah Ammar Rafea</t>
   </si>
 </sst>
 </file>
@@ -117,7 +132,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -125,14 +140,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -274,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -308,6 +323,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,8 +429,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C16" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C24" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C24"/>
   <tableColumns count="3">
     <tableColumn id="1" name="name" dataDxfId="2"/>
     <tableColumn id="2" name="Task" dataDxfId="1"/>
@@ -462,7 +483,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,7 +518,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,21 +727,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="57" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -731,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -740,7 +761,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -751,7 +772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -760,7 +781,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -769,7 +790,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -778,7 +799,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
@@ -789,7 +810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -798,7 +819,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
@@ -807,7 +828,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -816,7 +837,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -825,7 +846,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -834,7 +855,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -843,7 +864,7 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
@@ -854,7 +875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
@@ -863,7 +884,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
@@ -873,6 +894,66 @@
       <c r="C16" s="9" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -52,9 +52,6 @@
     <t>hayder alkobary</t>
   </si>
   <si>
-    <t>Ahmed jameel</t>
-  </si>
-  <si>
     <t>Mohamed khalid</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>Abdullah Ammar Rafea</t>
+  </si>
+  <si>
+    <t>Ahmed jameel 59</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -766,10 +766,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -777,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -786,7 +786,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -795,7 +795,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -804,18 +804,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -824,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -833,7 +833,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4"/>
     </row>
@@ -842,101 +842,101 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4"/>
     </row>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,9 @@
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -121,7 +121,7 @@
     <t>Abdullah Ammar Rafea</t>
   </si>
   <si>
-    <t>Ahmed jameel 59</t>
+    <t xml:space="preserve">Ahmed jameel </t>
   </si>
 </sst>
 </file>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ahmed jameel </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -730,14 +733,14 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="57" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -788,7 +791,9 @@
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -127,12 +127,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -140,14 +140,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -483,7 +483,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +518,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,19 +729,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="57" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -761,7 +761,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -772,7 +772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -781,7 +781,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -790,7 +790,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -799,7 +799,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
@@ -810,7 +810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>35</v>
       </c>
@@ -821,7 +821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
@@ -830,7 +830,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -839,7 +839,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -848,7 +848,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -857,7 +857,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
@@ -866,7 +866,7 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -877,7 +877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
@@ -886,7 +886,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
@@ -897,7 +897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
@@ -906,7 +906,7 @@
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
@@ -915,7 +915,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
@@ -924,16 +924,18 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
@@ -942,17 +944,17 @@
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="13"/>
       <c r="C24" s="9"/>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -127,12 +127,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -140,14 +140,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -336,7 +336,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -353,7 +353,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -371,7 +371,7 @@
       <font>
         <b/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -441,7 +441,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="سمة Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -515,7 +515,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -550,7 +549,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -726,22 +724,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="57" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="21">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -752,7 +750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="45">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -761,7 +759,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="30">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -772,7 +770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="45">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -781,7 +779,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="45">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -790,7 +788,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="45">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -799,7 +797,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
@@ -810,7 +808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="10" t="s">
         <v>35</v>
       </c>
@@ -821,7 +819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="45">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
@@ -830,7 +828,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -839,7 +837,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="45">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -848,7 +846,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="45">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -857,7 +855,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
@@ -866,7 +864,7 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -877,7 +875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="45">
       <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
@@ -886,7 +884,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
@@ -897,16 +895,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
@@ -915,7 +915,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="10" t="s">
         <v>33</v>
       </c>
@@ -935,7 +935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
@@ -944,17 +944,17 @@
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="11"/>
       <c r="B24" s="13"/>
       <c r="C24" s="9"/>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -127,8 +127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,7 +336,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -353,7 +353,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -371,7 +371,7 @@
       <font>
         <b/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -441,7 +441,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="سمة Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -483,7 +483,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -515,9 +515,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,6 +550,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -724,14 +726,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="57" style="3" customWidth="1"/>
@@ -739,7 +741,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -750,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -759,7 +761,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="30">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -770,7 +772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -779,7 +781,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="45">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -788,7 +790,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="45">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -797,7 +799,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
@@ -808,7 +810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>35</v>
       </c>
@@ -819,7 +821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
@@ -828,7 +830,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -837,7 +839,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="45">
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -846,7 +848,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="45">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -855,7 +857,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="30">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
@@ -864,7 +866,7 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -875,7 +877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
@@ -884,7 +886,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
@@ -895,7 +897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
@@ -906,16 +908,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
@@ -924,7 +928,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>33</v>
       </c>
@@ -935,7 +939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
@@ -944,17 +948,17 @@
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="13"/>
       <c r="C24" s="9"/>
